--- a/data/case1/14/cost_13.xlsx
+++ b/data/case1/14/cost_13.xlsx
@@ -56,20 +56,20 @@
   <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>149.10997101881685</v>
+        <v>149.11057993586851</v>
       </c>
       <c r="B1" s="0">
-        <v>3.603656317316184</v>
+        <v>3.8486190834476908</v>
       </c>
       <c r="C1" s="0">
-        <v>2.902641878669276</v>
+        <v>2.4624918460534899</v>
       </c>
     </row>
   </sheetData>
